--- a/public/format_excel/format_import_guru.xlsx
+++ b/public/format_excel/format_import_guru.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>IMPORT DATA GURU</t>
   </si>
@@ -71,12 +71,18 @@
   <si>
     <t>TELEPON</t>
   </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>KODE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -94,8 +100,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,15 +151,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -154,7 +173,22 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -373,9 +407,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.86"/>
     <col customWidth="1" min="2" max="2" width="28.0"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="10.29"/>
     <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
+    <col customWidth="1" min="5" max="5" width="10.29"/>
     <col customWidth="1" min="6" max="6" width="3.86"/>
     <col customWidth="1" min="7" max="7" width="14.0"/>
     <col customWidth="1" min="8" max="8" width="15.14"/>
@@ -391,238 +425,266 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
@@ -636,6 +698,8 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8"/>
@@ -649,6 +713,8 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8"/>
@@ -662,6 +728,8 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8"/>
@@ -675,6 +743,8 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8"/>
@@ -688,6 +758,8 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8"/>
@@ -701,6 +773,8 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8"/>
@@ -714,6 +788,8 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
@@ -727,6 +803,8 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
@@ -740,6 +818,8 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
@@ -753,6 +833,8 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
@@ -766,6 +848,8 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
@@ -779,6 +863,8 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
@@ -792,6 +878,8 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
@@ -805,6 +893,8 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
@@ -818,6 +908,8 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
@@ -831,6 +923,8 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
@@ -844,6 +938,8 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
@@ -857,6 +953,8 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
@@ -870,6 +968,8 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
@@ -883,6 +983,8 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8"/>
@@ -896,6 +998,8 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8"/>
@@ -909,6 +1013,8 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8"/>
@@ -922,6 +1028,8 @@
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8"/>
@@ -935,6 +1043,8 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8"/>
@@ -948,6 +1058,8 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8"/>
@@ -961,6 +1073,8 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8"/>
@@ -974,6 +1088,8 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8"/>
@@ -987,6 +1103,8 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8"/>
@@ -1000,6 +1118,8 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
@@ -1013,6 +1133,8 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8"/>
@@ -1026,6 +1148,8 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
@@ -1039,6 +1163,8 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8"/>
@@ -1052,6 +1178,8 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8"/>
@@ -1065,6 +1193,8 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8"/>
@@ -1078,6 +1208,8 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8"/>
@@ -1091,6 +1223,8 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8"/>
@@ -1104,6 +1238,8 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8"/>
@@ -1117,6 +1253,8 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8"/>
@@ -1130,6 +1268,8 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
     </row>
     <row r="60" ht="15.75" customHeight="1"/>
     <row r="61" ht="15.75" customHeight="1"/>
@@ -2075,12 +2215,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
